--- a/Manual Testing  Project/scenario- m.file -upload.xlsx
+++ b/Manual Testing  Project/scenario- m.file -upload.xlsx
@@ -12,28 +12,29 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Test case1" sheetId="3" r:id="rId1"/>
-    <sheet name="pen" sheetId="4" r:id="rId2"/>
-    <sheet name="Door" sheetId="5" r:id="rId3"/>
-    <sheet name="Test case 2" sheetId="1" r:id="rId4"/>
-    <sheet name="Test case 3" sheetId="2" r:id="rId5"/>
-    <sheet name="Fan" sheetId="6" r:id="rId6"/>
-    <sheet name="left" sheetId="7" r:id="rId7"/>
-    <sheet name="chair" sheetId="8" r:id="rId8"/>
-    <sheet name="wrist watch" sheetId="9" r:id="rId9"/>
-    <sheet name="penstand" sheetId="10" r:id="rId10"/>
-    <sheet name="water bottle" sheetId="11" r:id="rId11"/>
-    <sheet name="coffee vending machine" sheetId="12" r:id="rId12"/>
-    <sheet name="whatsapp" sheetId="13" r:id="rId13"/>
-    <sheet name="instagram" sheetId="14" r:id="rId14"/>
-    <sheet name="snapchat" sheetId="15" r:id="rId15"/>
-    <sheet name="facebook messenger" sheetId="16" r:id="rId16"/>
-    <sheet name="HLR INSTAGRAM" sheetId="17" r:id="rId17"/>
-    <sheet name="TEST CASE OF INSTAGRAM" sheetId="18" r:id="rId18"/>
-    <sheet name="HLR FACEBOOK" sheetId="19" r:id="rId19"/>
-    <sheet name="TEST CASE FACEBOOK" sheetId="20" r:id="rId20"/>
+    <sheet name="ASSIGNMENT2 AND 4" sheetId="21" r:id="rId1"/>
+    <sheet name="Test case1" sheetId="3" r:id="rId2"/>
+    <sheet name="pen" sheetId="4" r:id="rId3"/>
+    <sheet name="Door" sheetId="5" r:id="rId4"/>
+    <sheet name="Test case 2" sheetId="1" r:id="rId5"/>
+    <sheet name="Test case 3" sheetId="2" r:id="rId6"/>
+    <sheet name="Fan" sheetId="6" r:id="rId7"/>
+    <sheet name="left" sheetId="7" r:id="rId8"/>
+    <sheet name="chair" sheetId="8" r:id="rId9"/>
+    <sheet name="wrist watch" sheetId="9" r:id="rId10"/>
+    <sheet name="penstand" sheetId="10" r:id="rId11"/>
+    <sheet name="water bottle" sheetId="11" r:id="rId12"/>
+    <sheet name="coffee vending machine" sheetId="12" r:id="rId13"/>
+    <sheet name="whatsapp" sheetId="13" r:id="rId14"/>
+    <sheet name="instagram" sheetId="14" r:id="rId15"/>
+    <sheet name="snapchat" sheetId="15" r:id="rId16"/>
+    <sheet name="facebook messenger" sheetId="16" r:id="rId17"/>
+    <sheet name="HLR INSTAGRAM" sheetId="17" r:id="rId18"/>
+    <sheet name="TEST CASE OF INSTAGRAM" sheetId="18" r:id="rId19"/>
+    <sheet name="HLR FACEBOOK" sheetId="19" r:id="rId20"/>
+    <sheet name="TEST CASE FACEBOOK" sheetId="20" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="1444">
   <si>
     <t>Test case</t>
   </si>
@@ -3837,12 +3838,2767 @@
 2)press enter key
 3)click on login with facebook</t>
   </si>
+  <si>
+    <t>MODULE 2 ASSIGNMENT</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.1What is exploratory testing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Exploratory testing is a concurrent process where test design ,execution ,&amp; login happen simultaneously testing is often not recorded Makes use of experience, heuristics and test patterns</t>
+  </si>
+  <si>
+    <t>Testing is based on a test charter that may include</t>
+  </si>
+  <si>
+    <t>Scope of the testing (in and out)</t>
+  </si>
+  <si>
+    <t>The focus of exploratory testing is more on testing as a “thinking”</t>
+  </si>
+  <si>
+    <t>activity.</t>
+  </si>
+  <si>
+    <t>A brief description of how tests will be performed</t>
+  </si>
+  <si>
+    <t>Expected problems.</t>
+  </si>
+  <si>
+    <t>Is carried out in time boxed intervals.</t>
+  </si>
+  <si>
+    <t>More structure than error gussing.It is highly teachable &amp; manageable.</t>
+  </si>
+  <si>
+    <t>Q.2 What is traceability matrix?</t>
+  </si>
+  <si>
+    <t>To protect against changes you should be able to trace back from every system component to the original requirement that caused its presence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of traceability matrix </t>
+  </si>
+  <si>
+    <t>1.Forward traceability</t>
+  </si>
+  <si>
+    <t>2. Backward traceability</t>
+  </si>
+  <si>
+    <t>3.Bidirectional traceability</t>
+  </si>
+  <si>
+    <t>Q.3 What is Boundary value testing?</t>
+  </si>
+  <si>
+    <t>Boundary value analysis is methodology for designing test cases that concentrates software testing effort on cases near the limit of valid ranges boundary value analysis is a method which refines equivalence petitioning boundary value analysis generates test cases that highlight errors better than equivalence partying.</t>
+  </si>
+  <si>
+    <t>The trick is concentrate software testing effort at the extreme end of the equivalence.</t>
+  </si>
+  <si>
+    <t>Q 4 What is Equivalence partitioning testing?</t>
+  </si>
+  <si>
+    <t>Aim is to treat groups of inputs and to select one represented input to test them all.</t>
+  </si>
+  <si>
+    <t>EP can be used for all level of testing.</t>
+  </si>
+  <si>
+    <t>Epis the process of defining the optimum number of tests by</t>
+  </si>
+  <si>
+    <t>Reviewing documents such as the Functional Design Specification and Detailed Design Specification, and identifying each input condition within a function, selecting input data that is representative of all other data that would likely invoke the same process for that particular condition. If we want to test the following IF statement: “If value is between 1 and 100 (inclusive) (e.g value &gt;=1 and value &lt;=100)</t>
+  </si>
+  <si>
+    <t>Q,5 What is Integration testing?</t>
+  </si>
+  <si>
+    <t>Testing perform to expose defects in the interfaces and in the interactions between integrated components or system.</t>
+  </si>
+  <si>
+    <t>The purpose of this testing is to expose faults in the interaction  between integrated units .</t>
+  </si>
+  <si>
+    <t>Test drivers and test stubs are used to assist in integration testing.</t>
+  </si>
+  <si>
+    <t>Integration testing test the integration or interfaces between component,interections,to different parts of the system such as an operating system .</t>
+  </si>
+  <si>
+    <t>Q.6. What is Component  testing?</t>
+  </si>
+  <si>
+    <t>The testing of individual software component.it is level of software testing process where individual  unit of a software are tested .The purpose is to validate that each unit of the software perform  as designed .</t>
+  </si>
+  <si>
+    <t>Unit testing is the first level of testing and is performed prior to</t>
+  </si>
+  <si>
+    <t>Integration Testing.</t>
+  </si>
+  <si>
+    <t>Sometimes known as Unit Testing, Module Testing or Program Testing.</t>
+  </si>
+  <si>
+    <t>Component can be tested in isolation – stubs/drivers may be employed.</t>
+  </si>
+  <si>
+    <t>Unit testing frameworks, drivers, stubs and mock or fake objects are used</t>
+  </si>
+  <si>
+    <t>to assist in unit testing.</t>
+  </si>
+  <si>
+    <t>Functional and Non-Functional testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unit tests are typically written and run by software developers to</t>
+  </si>
+  <si>
+    <t>ensure that code meets its design and behaves as intended with debugging</t>
+  </si>
+  <si>
+    <t>tool.</t>
+  </si>
+  <si>
+    <t>7. What is functional system testing?</t>
+  </si>
+  <si>
+    <t>Testing based on an analysis of the specification of the functionality of a component. Functional testing verifies that each function of the software. Application operates in conformance with the requirement specification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,eg requirements specification ,use cases ,functional specification or may be  undocumented</t>
+  </si>
+  <si>
+    <t>Q 8 .What is non- functional testing</t>
+  </si>
+  <si>
+    <r>
+      <t>Non-Functional Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing the attributes of a component or system that do not relate to functionality, e.g. reliability, efficiency, usability, interoperability, maintainability and portability. May be performed at all Test levels (not just Non Functional Systems Testing) ‘.Measuring the characteristics of the system/software that can be quantified on a varying scale- e.g. performance test scaling Non-functional testing includes, but is not limited to, performance testing, load testing, stress testing, usability testing, maintainability testing, reliability testing and portability testing.</t>
+    </r>
+  </si>
+  <si>
+    <t>Eg.1 web Based testing</t>
+  </si>
+  <si>
+    <t>2.Desktop based testing</t>
+  </si>
+  <si>
+    <t>3.Mobile based testing</t>
+  </si>
+  <si>
+    <t>4.Game based testing</t>
+  </si>
+  <si>
+    <r>
+      <t>9. What is GUI Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Dubai"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GUI is the abbreviation of “Graphical User Interface”. It contains several visual elements, such as buttons, text boxes, menus, icons and all types of bars – tool bar, menu bar and windows etc. GUI testing refers to the validating UI functions or features of an application that are visible to the users, and they should comply with business requirement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10.What is Adhoc testing? </t>
+  </si>
+  <si>
+    <t>Adhoc testing is an informal testing type with an aim to break the system. Main aim of this testing is to find the defects by random checking. Adhoc testing can be achieved with the testing technique called Error Guessing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. What is load testing? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s a performance testing to check system behaviour under load. Testing an application under heavy loads, such as testing of a web site under a range of loads to determine at what point the system’s response time degrades or fails. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.What is stress Testing? </t>
+  </si>
+  <si>
+    <t>System is stressed beyond its specifications to check how and when it fails. Performed under heavy load like putting large number beyond storage capacity, complex database queries, continuous input to system or database l</t>
+  </si>
+  <si>
+    <r>
+      <t>13. What is white box testing and list the types of white box testing?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Dubai"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>White box testing is a software testing technique that involves testing the internal structure and workings of software application. The tester has access to source code and uses this knowledge to design test cases that can verify the correctness the software at the code level.</t>
+  </si>
+  <si>
+    <t>TECHNIQUES OF WHITE BOX TESTING:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Branch Condition testing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modified Condition Decision testing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dataflow testing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linear Code Sequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Branch Condition Combination testing</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">14.What is black box testing? What are the different black box testing techniques? </t>
+  </si>
+  <si>
+    <r>
+      <t>BLACK BOX TESTING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing, either functional or non-functional, without reference to the internal structure of the component or system. The testers have no knowledge of how the system or component is structured inside the box.</t>
+    </r>
+  </si>
+  <si>
+    <t>TECHNIQUES OF BLACK BOX TESTING:</t>
+  </si>
+  <si>
+    <t>Techniques of Black Box Testing</t>
+  </si>
+  <si>
+    <t>There are four specification-based or black-box</t>
+  </si>
+  <si>
+    <t>technique:</t>
+  </si>
+  <si>
+    <t>Equivalence partitioning</t>
+  </si>
+  <si>
+    <t>Boundary value analysis</t>
+  </si>
+  <si>
+    <t>Decision tables</t>
+  </si>
+  <si>
+    <t>State transition testing</t>
+  </si>
+  <si>
+    <t>Use-case Testing</t>
+  </si>
+  <si>
+    <t>Other Black Box Testing</t>
+  </si>
+  <si>
+    <t>Syntax or Pattern Testing</t>
+  </si>
+  <si>
+    <t>-Branch Condition testing</t>
+  </si>
+  <si>
+    <t>-Modified Condition Decision testing</t>
+  </si>
+  <si>
+    <t>-Dataflow testing</t>
+  </si>
+  <si>
+    <t>-Linear Code Sequence</t>
+  </si>
+  <si>
+    <t>-Branch Condition Combination testing</t>
+  </si>
+  <si>
+    <t>Q15.Mention what big bang testing ?</t>
+  </si>
+  <si>
+    <t>In big bang integration testing all component is integrated simultaneously, after which everything is tested as a whole</t>
+  </si>
+  <si>
+    <t>Big Bang testing has the advantage that everything is finished before</t>
+  </si>
+  <si>
+    <t>integration testing starts.</t>
+  </si>
+  <si>
+    <t>The major disadvantage is that in general it is time consuming and</t>
+  </si>
+  <si>
+    <t>difficult to trace the cause of failures because of this late integration.</t>
+  </si>
+  <si>
+    <t>Here all component are integrated together at once, and then</t>
+  </si>
+  <si>
+    <t>Tested.</t>
+  </si>
+  <si>
+    <t>16.What is the purpose of exit criteria?</t>
+  </si>
+  <si>
+    <r>
+      <t>Purpose of exit criteria is to define when we stop testing either at the: End of all testing – i.e. product Go Live and End of phase of testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Dubai"/>
+        <family val="2"/>
+      </rPr>
+      <t>17.When should "Regression Testing" be performed?</t>
+    </r>
+  </si>
+  <si>
+    <t>Regression testing should be carried out when the system is stable and the system or the    environment changes, when testing bug-fix releases as part of the maintenance phase.</t>
+  </si>
+  <si>
+    <t>18.What is 7 key principles? Explain in detail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> General Testing Principles</t>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testing shows presence of Defects:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Testing can show that defects are present, but cannot prove that there are no defects. Testing reduces the probability of undiscovered defects remaining in the software but, even if no defects are found, it is not a proof of correctness.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exhaustive Testing is Impossible:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Testing everything including all combinations of inputs and preconditions is not possible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Early Testing: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Testing activities should start as early as possible in the software or system development life cycle, and should be focused on defined objectives.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Defect Clustering: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- A small number of modules contain most of the defects discovered during pre-release testing, or are responsible for the most operational failures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Pesticide Paradox: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- To overcome this “pesticide paradox”, the test cases need to be regularly reviewed and revised, and new and different tests need to be written to exercise different parts of the software or system to potentially find more defects.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Testing is Context Dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Testing is basically context dependent. Testing is done differently in different contexts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Different kinds of sites are tested differently.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absence of Errors Fallacy: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Even after defects have been resolved it may still be unusable and/or does not fulfil the users’ needs and</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19.Difference between QA v/s QC v/s Teste</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Dubai"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">r </t>
+    </r>
+  </si>
+  <si>
+    <t>Quality Assurance (QA)</t>
+  </si>
+  <si>
+    <t>Quality Control (QC)</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Focuses on processes and procedures rather than conducting actual testing on the system</t>
+  </si>
+  <si>
+    <t>Focuses on actual testing by executing Software with intend to identify bug/defect through</t>
+  </si>
+  <si>
+    <t>implementation of procedures and process.</t>
+  </si>
+  <si>
+    <t>Focuses on actual testing.</t>
+  </si>
+  <si>
+    <t>Process oriented activities.</t>
+  </si>
+  <si>
+    <t>Product oriented activities.</t>
+  </si>
+  <si>
+    <t>Preventive activities</t>
+  </si>
+  <si>
+    <t>It is a corrective process.</t>
+  </si>
+  <si>
+    <t>It is a preventive process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC can be considered as the subset of Quality Assurance. </t>
+  </si>
+  <si>
+    <t>Testing is the subset of Quality Control.</t>
+  </si>
+  <si>
+    <t>It is a subset of Software Test Life Cycle (STLC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.Difference between Smoke and Sanity? </t>
+  </si>
+  <si>
+    <t>Smoke Testing</t>
+  </si>
+  <si>
+    <t>Sanity Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smoke Testing is performed to ascertain that the critical functionalities of the program is working fine</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanity Testing is done to check the new functionality / bugs have been fixed</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smoke testing is usually documented or scripted</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanity testing is usually not documented and </t>
+  </si>
+  <si>
+    <t>is unscripted</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smoke testing is a subset of Regression testing</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanity testing is a subset of Acceptance testing</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smoke testing performed by developers or testers</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanity testing performed by testers</t>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smoke testing is may be stable/unstable</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanity testing is always stable</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smoke testing’s main goal is to verify “stability”</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanity testing’s main goal is to verify “rationality”</t>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Smoke testing is like General Health Check Up</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanity Testing is like specialized health check up</t>
+  </si>
+  <si>
+    <t>21.Explain the difference between Functional testing and Non-Functional testing?</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Non-Functional Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t>Functional testing is performed using the functional specification provided by the client and verifies the system against the functional requirements</t>
+    </r>
+  </si>
+  <si>
+    <t>Non-Functional testing checks the Performance, reliability, scalability and other non-functional aspects of the software system</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t>Functional testing is executed first</t>
+    </r>
+  </si>
+  <si>
+    <t>Non-functional testing should be performed after functional testing</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t>Manual testing or automation tools can be used for functional testing</t>
+    </r>
+  </si>
+  <si>
+    <t>Using tools will be effective for this testing</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t>Business requirements are the inputs to functional testing</t>
+    </r>
+  </si>
+  <si>
+    <t>Performance parameters like speed, scalability are inputs to non-functional testing.</t>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t>Functional testing describes what the product does</t>
+    </r>
+  </si>
+  <si>
+    <t>Nonfunctional testing describes how good the product works</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t>Easy to do manual testing</t>
+    </r>
+  </si>
+  <si>
+    <t>Tough to do manual testing</t>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Types of Functional testing are </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Unit Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Smoke Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Sanity Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Integration Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> White box testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Black Box testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> User Acceptance testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Regression Testing</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of Nonfunctional testing are </t>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Performance Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Load Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Volume Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Stress Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Security Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Installation Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Penetration Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Compatibility Testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HoloLens MDL2 Assets"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Migration Testing</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference between verification and Validation</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>The process of evaluating work-products (not the actual final product) of a development phase to determine whether they meet the specified requirements for that phase</t>
+  </si>
+  <si>
+    <t>The process of evaluating software during or at the end of the development process to determine whether it satisfies specified business requirements.</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>To ensure that the product is being built according to the requirements and design specifications. In other words, to ensure that work products meet their specified requirements.</t>
+  </si>
+  <si>
+    <t>To ensure that the product actually meets the user’s needs, and that the specifications were correct in the first place. In other words, to demonstrate that the product fulfills its intended use when placed in its intended environment.</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Are we building the product right?</t>
+  </si>
+  <si>
+    <t>Are we building the right product?</t>
+  </si>
+  <si>
+    <t>Evaluation items</t>
+  </si>
+  <si>
+    <t>Plans, Requirement Specs, Design Specs, Code, Test Cases</t>
+  </si>
+  <si>
+    <t>The actual product/software.</t>
+  </si>
+  <si>
+    <t>SDLC</t>
+  </si>
+  <si>
+    <t>STLC</t>
+  </si>
+  <si>
+    <t>Full form</t>
+  </si>
+  <si>
+    <t>Software Development Life Cycle</t>
+  </si>
+  <si>
+    <t>Software Testing Life Cycle</t>
+  </si>
+  <si>
+    <t>The main object of SDLC life cycle is to complete successful development of the software including testing and other phases.</t>
+  </si>
+  <si>
+    <t>The only objective of the STLC phase is testing.</t>
+  </si>
+  <si>
+    <t>Requirement Gathering</t>
+  </si>
+  <si>
+    <t>In SDLC the business analyst</t>
+  </si>
+  <si>
+    <t>gathers the requirements and</t>
+  </si>
+  <si>
+    <t>create Development Plan</t>
+  </si>
+  <si>
+    <t>In STLC, the QA team analyze requirement documents like functional and non-functional documents and create System Test Plan</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>In SDLC, the development team creates the high and low-level design plans</t>
+  </si>
+  <si>
+    <t>In STLC, the test analyst creates the Integration Test Plan</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>The real code is developed,</t>
+  </si>
+  <si>
+    <t>and actual work takes place as per the design documents.</t>
+  </si>
+  <si>
+    <t>The testing team prepares the test environment and executes them</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>SDLC phase also includes post-deployment supports and updates.</t>
+  </si>
+  <si>
+    <t>Testers, execute regression suits, usually automation scripts to check maintenance code deployed</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Dubai"/>
+        <family val="2"/>
+      </rPr>
+      <t>What is the difference between test scenarios, test cases, and test script?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Script:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - A set of sequential instruction that detail how to execute a core business function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Scenario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - A Scenario is any functionality that can be tested. It is also called Test Condition, or Test Possibility.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test Case:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Test cases involve the set of steps, conditions and inputs which can be used while performing the testing tasks</t>
+    </r>
+  </si>
+  <si>
+    <t>Key features of Bugzilla includes:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advanced search capabilities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E-mail Notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modify/file Bugs by e-mail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time tracking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strong security</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Customization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Localization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bugzilla is an open-source issue/bug tracking system that allows developers effectively to keep track of outstanding problems with their product. It is written in Perl and uses MYSQL database.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Performance testing: - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Software performance testing is a means of quality assurance (QA). It involves testing software applications to ensure they will perform well under their expected workload.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Types of performance testing: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stress testing: -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> System is stressed beyond its specifications to check how and when it fails. Performed under heavy load like putting large number beyond storage capacity, complex database queries, continuous input to system or database load.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stress testing tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Stress Tester </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo Load </t>
+  </si>
+  <si>
+    <t>App Perfect</t>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Load testing: –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It’s a performance testing to check system behavior under load. Testing an application under heavy loads, such as testing of a web site under a range of loads to determine at what point the system’s response time degrades or fails.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Load testing tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Load runner</t>
+  </si>
+  <si>
+    <t>Web Load</t>
+  </si>
+  <si>
+    <t>Astra Load Test</t>
+  </si>
+  <si>
+    <t>Review’s Web Load</t>
+  </si>
+  <si>
+    <t>Studio, Rational Site Load</t>
+  </si>
+  <si>
+    <t>Silk Performer</t>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endurance testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spike testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Volume testing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scalability testing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Dubai"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> What is Error, Defect, Bug and failure? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERROR: -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A mistake in coding is called error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DEFECTS: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- error found by tester is called defect</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BUG: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- defect accepted by development team then it is called bug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FAILURE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- build does not meet the requirements then it is failure</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Difference between Priority and Severity?</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Dubai"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">What is Bug Life Cycle? </t>
+    </r>
+  </si>
+  <si>
+    <t>Bug life cycle is the specific set of stages that defects or bugs goes through in its entire life. The purpose of defects life cycle is to easily coordinate or communicate current status of defects which change to various assignee and make the defects fixing process systematic and efficient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ASSIENMENT 4</t>
+  </si>
+  <si>
+    <r>
+      <t>1 .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Which component used in load runner?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The key components of load runner ;load generator  the load aginst the application  by following scripts ;VUGEM ( Virtual user generator) for generating and editing scripts ,controller controls ,launches and sequences instances of load generator –specifying which script to use ,for </t>
+  </si>
+  <si>
+    <r>
+      <t>2. How can you set the number of vuser  in load runner</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>You can set the number of vuser  in the controller section while creating your scenario .many other advanced options like ramp –up ,ramp down of user  are also available in the controller section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 .How load runner interacts with the application? </t>
+  </si>
+  <si>
+    <t>Load runner simulates user activity by generating messages between application components or by simulating interactions   with y he user interface such as key presses or mouse movement s. the messages and internee actions to be generated are stored in scripts.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How many vuser are required for load testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For example, if you run a load test with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10,000 virtual users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, each making a request every 20 seconds (3 requests per minute), then you're making 30,000 requests per minute, which equals 500 requests per second.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 .What is the relationship between response time and  throughput?</t>
+  </si>
+  <si>
+    <r>
+      <t>Response time and throughput are related. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The response time for an average transaction tends to decrease as you increase overall throughput</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. However, you can decrease the response time for a specific query, at the expense of overall throughput, by allocating a disproportionate amount of resources to that query.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. WHAT IS Automation testing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Automation Testing is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a software testing technique that performs using special automated testing software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> tools to execute a test case suit.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Automated Testing is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a technique where the Tester writes scripts on their own and uses suitable Software or Automation Tool to test the software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It is an Automation Process of a Manual Process. It allows for executing repetitive tasks without the intervention of a Manual Tester.</t>
+    </r>
+  </si>
+  <si>
+    <t>7. What are the benefits of automation testing?</t>
+  </si>
+  <si>
+    <t>-70% faster than the manual testing</t>
+  </si>
+  <si>
+    <t>-Wider test coverage of application features</t>
+  </si>
+  <si>
+    <t>-Reliable in results</t>
+  </si>
+  <si>
+    <t>-Ensure Consistency</t>
+  </si>
+  <si>
+    <t>-Saves Time and Cost</t>
+  </si>
+  <si>
+    <t>-Improves accuracy</t>
+  </si>
+  <si>
+    <t>-Human Intervention is not required while execution</t>
+  </si>
+  <si>
+    <t>-Increases Efficiency</t>
+  </si>
+  <si>
+    <t>-Better speed in executing tests</t>
+  </si>
+  <si>
+    <t>-Re-usable test scripts</t>
+  </si>
+  <si>
+    <t>-Test frequently and thoroughly</t>
+  </si>
+  <si>
+    <t>-More cycle of execution can be achieved through automation</t>
+  </si>
+  <si>
+    <t>-Early time to market</t>
+  </si>
+  <si>
+    <t>8. what are the advantage of selenium?</t>
+  </si>
+  <si>
+    <r>
+      <t>Advantages of Selenium-selenium is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>open-source automation testing tool and it is free of cost to use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Selenium provides high tester flexibility to write advanced and complex test cases. Supports test case execution on multiple operating systems such as Windows, Linux, Android, Mac, and iOS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selenium is a popular open-source testing tool used for web application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>testing.</t>
+    </r>
+  </si>
+  <si>
+    <t>9. Why tester should opt for selenium and not QTP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium </t>
+  </si>
+  <si>
+    <t>QTP</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Open source, free to use, and free of charge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Highly extensible</t>
+  </si>
+  <si>
+    <t>Limited add-ons</t>
+  </si>
+  <si>
+    <t>Can run tests across different browsers</t>
+  </si>
+  <si>
+    <t>Can only run tests in Firefox , Internet Explorer and Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports various operating systems </t>
+  </si>
+  <si>
+    <t>Can only be used in Windows</t>
+  </si>
+  <si>
+    <t>Supports mobile devices</t>
+  </si>
+  <si>
+    <t>Supports mobile devise using 3rd party software</t>
+  </si>
+  <si>
+    <r>
+      <t>Can execute tests in parallel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Can execute tests while the browser is  minimized to be visible on the desktop</t>
+  </si>
+  <si>
+    <t>Needs to have to have the application under test</t>
+  </si>
+  <si>
+    <r>
+      <t>Can only execute in parallel but using Quality Centre which is again a paid product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3953,16 +6709,292 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Dubai"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Dubai"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HoloLens MDL2 Assets"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Dubai"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3996,12 +7028,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4090,6 +7231,276 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4372,1687 +7783,2081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48">
-        <v>11</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52">
-        <v>12</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>13</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D57" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D58" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>14</v>
-      </c>
-      <c r="B60">
-        <v>13</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D61" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D62" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D63" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>15</v>
-      </c>
-      <c r="B64">
-        <v>14</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D65" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D66" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>16</v>
-      </c>
-      <c r="B68">
-        <v>15</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D69" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D70" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C72" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D73" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D74" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="58.2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
-        <v>21</v>
-      </c>
-      <c r="B75" s="2">
-        <v>3</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
-        <v>22</v>
-      </c>
-      <c r="B77" s="4">
-        <v>100</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
-        <v>23</v>
-      </c>
-      <c r="B79" s="4">
-        <v>200</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
-        <v>25</v>
-      </c>
-      <c r="B81" s="4">
-        <v>300</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
-        <v>26</v>
-      </c>
-      <c r="B83" s="2">
-        <v>400</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="58.2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
-        <v>27</v>
-      </c>
-      <c r="B85" s="4">
-        <v>500</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
-        <v>28</v>
-      </c>
-      <c r="B87" s="2">
-        <v>600</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
-        <v>29</v>
-      </c>
-      <c r="B89" s="2">
-        <v>700</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
-        <v>30</v>
-      </c>
-      <c r="B91" s="2">
-        <v>800</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
-        <v>31</v>
-      </c>
-      <c r="B93" s="2">
-        <v>900</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
-        <v>32</v>
-      </c>
-      <c r="B95" s="2">
-        <v>901</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
-        <v>33</v>
-      </c>
-      <c r="B97" s="2">
-        <v>901</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
-        <v>34</v>
-      </c>
-      <c r="B99" s="2">
-        <v>901</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
-        <v>35</v>
-      </c>
-      <c r="B101" s="2">
-        <v>901</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
-        <v>36</v>
-      </c>
-      <c r="B103" s="2">
-        <v>901</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A105" s="4">
-        <v>37</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
-        <v>38</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A109" s="4">
-        <v>39</v>
-      </c>
-      <c r="B109" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A111" s="4">
-        <v>40</v>
-      </c>
-      <c r="B111" s="4">
-        <v>1003</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A113" s="4">
-        <v>41</v>
-      </c>
-      <c r="B113" s="4">
-        <v>1004</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
-        <v>42</v>
-      </c>
-      <c r="B115" s="2">
-        <v>1005</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A117" s="2">
-        <v>43</v>
-      </c>
-      <c r="B117" s="2">
-        <v>1006</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+    </row>
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+    </row>
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="40" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A51" s="40" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="40" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A53" s="40" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="40" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
+    </row>
+    <row r="56" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A57" s="42" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="45" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A63" s="42" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="45" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A65" s="42" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A67" s="48" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="48" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="48" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A71" s="48" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="45" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="49" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="49" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="49" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="49" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="49" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="49" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="49" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="49" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="50" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="50" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="50" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="50" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="51" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="51" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="51" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="51" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="52" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A90" s="53" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A91" s="38" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A92" s="38" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A93" s="38" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A94" s="38" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A95" s="38" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A96" s="38" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A97" s="38" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="54" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="55" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="54" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="56" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="49" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="57" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="57" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="57" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="57" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="57" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A109" s="57" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="58" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="59" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="60"/>
+    </row>
+    <row r="113" spans="1:4" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="61" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B113" s="62" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C113" s="62" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="68" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B114" s="63" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C114" s="68" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="69"/>
+      <c r="B115" s="64" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C115" s="69"/>
+    </row>
+    <row r="116" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="65" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C116" s="64" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="65" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B117" s="64" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C117" s="64" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="66"/>
+      <c r="B118" s="64" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C118" s="64" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="65" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+    </row>
+    <row r="120" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="66"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+    </row>
+    <row r="121" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="66"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+    </row>
+    <row r="122" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="66"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+    </row>
+    <row r="123" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="66"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="67"/>
+    </row>
+    <row r="124" spans="1:4" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="70" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="60"/>
+    </row>
+    <row r="126" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="60"/>
+    </row>
+    <row r="127" spans="1:4" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="71" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B127" s="72" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C127" s="73"/>
+      <c r="D127" s="73"/>
+    </row>
+    <row r="128" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="74" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B128" s="75" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+    </row>
+    <row r="129" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="78" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B129" s="77" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C129" s="80"/>
+      <c r="D129" s="80"/>
+    </row>
+    <row r="130" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="79"/>
+      <c r="B130" s="75" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C130" s="81"/>
+      <c r="D130" s="81"/>
+    </row>
+    <row r="131" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="74" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B131" s="75" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+    </row>
+    <row r="132" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="74" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B132" s="75" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+    </row>
+    <row r="133" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="74" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B133" s="75" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+    </row>
+    <row r="134" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="74" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B134" s="75" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+    </row>
+    <row r="135" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="74" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B135" s="75" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+    </row>
+    <row r="136" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="66"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+    </row>
+    <row r="137" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="66"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+    </row>
+    <row r="138" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="66"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+    </row>
+    <row r="139" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="66"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+    </row>
+    <row r="140" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="66"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+    </row>
+    <row r="141" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="66"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+    </row>
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A142" s="60"/>
+    </row>
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A143" s="60"/>
+    </row>
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A144" s="60"/>
+    </row>
+    <row r="145" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A145" s="60"/>
+    </row>
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A146" s="60"/>
+    </row>
+    <row r="147" spans="1:4" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="70" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A148" s="60"/>
+    </row>
+    <row r="149" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="60"/>
+    </row>
+    <row r="150" spans="1:4" ht="306.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="71" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B150" s="72" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C150" s="73"/>
+      <c r="D150" s="73"/>
+    </row>
+    <row r="151" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="74" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B151" s="82" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C151" s="67"/>
+      <c r="D151" s="67"/>
+    </row>
+    <row r="152" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="74" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B152" s="82" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+    </row>
+    <row r="153" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="74" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B153" s="82" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+    </row>
+    <row r="154" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="74" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B154" s="82" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C154" s="67"/>
+      <c r="D154" s="67"/>
+    </row>
+    <row r="155" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="74" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B155" s="82" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C155" s="67"/>
+      <c r="D155" s="67"/>
+    </row>
+    <row r="156" spans="1:4" ht="326.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="74" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B156" s="82" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C156" s="67"/>
+      <c r="D156" s="67"/>
+    </row>
+    <row r="157" spans="1:4" ht="408.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="76" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B157" s="85" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80"/>
+    </row>
+    <row r="158" spans="1:4" ht="166.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="83" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B158" s="86" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C158" s="88"/>
+      <c r="D158" s="88"/>
+    </row>
+    <row r="159" spans="1:4" ht="180.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="83" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B159" s="86" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C159" s="88"/>
+      <c r="D159" s="88"/>
+    </row>
+    <row r="160" spans="1:4" ht="194.4" x14ac:dyDescent="0.3">
+      <c r="A160" s="83" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B160" s="86" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C160" s="88"/>
+      <c r="D160" s="88"/>
+    </row>
+    <row r="161" spans="1:5" ht="263.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A161" s="83" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B161" s="86" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C161" s="88"/>
+      <c r="D161" s="88"/>
+    </row>
+    <row r="162" spans="1:5" ht="222" x14ac:dyDescent="0.3">
+      <c r="A162" s="83" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B162" s="86" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C162" s="88"/>
+      <c r="D162" s="88"/>
+    </row>
+    <row r="163" spans="1:5" ht="222" x14ac:dyDescent="0.3">
+      <c r="A163" s="83" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B163" s="86" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C163" s="88"/>
+      <c r="D163" s="88"/>
+    </row>
+    <row r="164" spans="1:5" ht="304.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="83" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B164" s="86" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C164" s="88"/>
+      <c r="D164" s="88"/>
+    </row>
+    <row r="165" spans="1:5" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="83" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B165" s="86" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C165" s="88"/>
+      <c r="D165" s="88"/>
+    </row>
+    <row r="166" spans="1:5" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="84"/>
+      <c r="B166" s="87" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C166" s="81"/>
+      <c r="D166" s="81"/>
+    </row>
+    <row r="167" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="66"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="67"/>
+    </row>
+    <row r="168" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="66"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="67"/>
+    </row>
+    <row r="169" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="66"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
+    </row>
+    <row r="170" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="66"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+    </row>
+    <row r="171" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="66"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="67"/>
+    </row>
+    <row r="172" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="66"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="67"/>
+    </row>
+    <row r="173" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A173" s="60"/>
+    </row>
+    <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A174" s="60"/>
+    </row>
+    <row r="175" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="55" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="89" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B176" s="90" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C176" s="90" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D176" s="80"/>
+      <c r="E176" s="80"/>
+    </row>
+    <row r="177" spans="1:5" ht="346.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="91" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B177" s="64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C177" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D177" s="88"/>
+      <c r="E177" s="88"/>
+    </row>
+    <row r="178" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="91" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B178" s="64" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C178" s="64" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D178" s="88"/>
+      <c r="E178" s="88"/>
+    </row>
+    <row r="179" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="91" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B179" s="64" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C179" s="64" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D179" s="88"/>
+      <c r="E179" s="88"/>
+    </row>
+    <row r="180" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="91" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B180" s="64" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C180" s="64" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D180" s="81"/>
+      <c r="E180" s="81"/>
+    </row>
+    <row r="181" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="103"/>
+      <c r="B181" s="104"/>
+      <c r="C181" s="105"/>
+      <c r="D181" s="67"/>
+      <c r="E181" s="67"/>
+    </row>
+    <row r="182" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="103"/>
+      <c r="B182" s="104"/>
+      <c r="C182" s="105"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="67"/>
+    </row>
+    <row r="183" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="103"/>
+      <c r="B183" s="104"/>
+      <c r="C183" s="105"/>
+      <c r="D183" s="67"/>
+      <c r="E183" s="67"/>
+    </row>
+    <row r="184" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="103"/>
+      <c r="B184" s="104"/>
+      <c r="C184" s="105"/>
+      <c r="D184" s="67"/>
+      <c r="E184" s="67"/>
+    </row>
+    <row r="185" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="103"/>
+      <c r="B185" s="104"/>
+      <c r="C185" s="105"/>
+      <c r="D185" s="67"/>
+      <c r="E185" s="67"/>
+    </row>
+    <row r="186" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="103"/>
+      <c r="B186" s="104"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="67"/>
+      <c r="E186" s="67"/>
+    </row>
+    <row r="187" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="103"/>
+      <c r="B187" s="104"/>
+      <c r="C187" s="105"/>
+      <c r="D187" s="67"/>
+      <c r="E187" s="67"/>
+    </row>
+    <row r="188" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="101"/>
+      <c r="B188" s="102" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C188" s="102" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D188" s="80"/>
+      <c r="E188" s="80"/>
+    </row>
+    <row r="189" spans="1:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="92" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B189" s="93" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C189" s="93" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D189" s="88"/>
+      <c r="E189" s="88"/>
+    </row>
+    <row r="190" spans="1:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="92" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B190" s="93" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C190" s="93" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
+    </row>
+    <row r="191" spans="1:5" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="96" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B191" s="94" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C191" s="98" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+    </row>
+    <row r="192" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A192" s="95"/>
+      <c r="B192" s="94" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C192" s="99"/>
+      <c r="D192" s="88"/>
+      <c r="E192" s="88"/>
+    </row>
+    <row r="193" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="97"/>
+      <c r="B193" s="93" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C193" s="100"/>
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
+    </row>
+    <row r="194" spans="1:5" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="92" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B194" s="93" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C194" s="93" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D194" s="88"/>
+      <c r="E194" s="88"/>
+    </row>
+    <row r="195" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A195" s="96" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B195" s="94" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C195" s="98" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D195" s="88"/>
+      <c r="E195" s="88"/>
+    </row>
+    <row r="196" spans="1:5" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="97"/>
+      <c r="B196" s="93" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C196" s="100"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="88"/>
+    </row>
+    <row r="197" spans="1:5" ht="219" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="92" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B197" s="93" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C197" s="93" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D197" s="81"/>
+      <c r="E197" s="81"/>
+    </row>
+    <row r="198" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="103"/>
+      <c r="B198" s="104"/>
+      <c r="C198" s="105"/>
+      <c r="D198" s="67"/>
+      <c r="E198" s="67"/>
+    </row>
+    <row r="199" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="103"/>
+      <c r="B199" s="104"/>
+      <c r="C199" s="105"/>
+      <c r="D199" s="67"/>
+      <c r="E199" s="67"/>
+    </row>
+    <row r="200" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="103"/>
+      <c r="B200" s="104"/>
+      <c r="C200" s="105"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="67"/>
+    </row>
+    <row r="201" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="103"/>
+      <c r="B201" s="104"/>
+      <c r="C201" s="105"/>
+      <c r="D201" s="67"/>
+      <c r="E201" s="67"/>
+    </row>
+    <row r="202" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="103"/>
+      <c r="B202" s="104"/>
+      <c r="C202" s="105"/>
+      <c r="D202" s="67"/>
+      <c r="E202" s="67"/>
+    </row>
+    <row r="203" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="103"/>
+      <c r="B203" s="104"/>
+      <c r="C203" s="105"/>
+      <c r="D203" s="67"/>
+      <c r="E203" s="67"/>
+    </row>
+    <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A204" s="60"/>
+    </row>
+    <row r="205" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="70" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="106" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="106" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="107" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A209" s="60"/>
+    </row>
+    <row r="210" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="108" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="109" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="109" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="109" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="109" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="109" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="109" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="109" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="109" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="49" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="49" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="110" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="106" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="111" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="111" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="111" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="110" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="106" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="111" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="111" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="111" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="111" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="111" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="111" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="110" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="110" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="110" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="110" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="70" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="112" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="112" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="112" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="112" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="55" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A244" s="60"/>
+    </row>
+    <row r="245" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="113" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="43" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A247" s="60"/>
+    </row>
+    <row r="248" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A248" s="60"/>
+    </row>
+    <row r="249" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A249" s="60"/>
+    </row>
+    <row r="250" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A250" s="60"/>
+    </row>
+    <row r="251" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A251" s="60"/>
+    </row>
+    <row r="252" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A252" s="60"/>
+    </row>
+    <row r="253" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A253" s="114" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B253" s="115" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A254" s="116" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="118" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="117"/>
+    </row>
+    <row r="257" spans="1:1" ht="180" x14ac:dyDescent="0.3">
+      <c r="A257" s="119" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A258" s="60" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A259" s="120" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A260" s="60" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A261" s="19" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A262" s="121" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="122" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A264" s="121" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A265" s="120" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A266" s="123"/>
+    </row>
+    <row r="267" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A267" s="124" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A268" s="120" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A269" s="60" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A270" s="60" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A271" s="60" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A272" s="60" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A273" s="60" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A274" s="60" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A275" s="60" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A276" s="60" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A277" s="60" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A278" s="60" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A279" s="60" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A280" s="60" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A281" s="60" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A282" s="39" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A283" s="121" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A284" s="125" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="19" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="126" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B286" s="73" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="66" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B287" s="67" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="66" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B288" s="67" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="66" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B289" s="67" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="66" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B290" s="67" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="66" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B291" s="67" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="105" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="66" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B292" s="67"/>
+    </row>
+    <row r="293" spans="1:2" ht="252.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="66" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B293" s="67" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="252.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="66"/>
+      <c r="B294" s="67" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="66"/>
+      <c r="B295" s="67"/>
+    </row>
+    <row r="296" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="66"/>
+      <c r="B296" s="67"/>
+    </row>
+    <row r="297" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="66"/>
+      <c r="B297" s="67"/>
+    </row>
+    <row r="298" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A298" s="60"/>
+    </row>
+    <row r="299" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A299" s="60"/>
+    </row>
+    <row r="300" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A300" s="60"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1"/>
-    <hyperlink ref="F64" r:id="rId2"/>
-    <hyperlink ref="F65" r:id="rId3"/>
-    <hyperlink ref="F72" r:id="rId4"/>
-    <hyperlink ref="F73" r:id="rId5"/>
-  </hyperlinks>
+  <mergeCells count="28">
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="D188:D197"/>
+    <mergeCell ref="E188:E197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D176:D180"/>
+    <mergeCell ref="E176:E180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="C157:C166"/>
+    <mergeCell ref="D157:D166"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="84.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="80.88671875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -6340,7 +10145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6567,7 +10372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -6818,7 +10623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C172"/>
   <sheetViews>
@@ -8080,7 +11885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F287"/>
   <sheetViews>
@@ -9677,7 +13482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C218"/>
   <sheetViews>
@@ -11200,7 +15005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C81"/>
   <sheetViews>
@@ -11845,7 +15650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -11942,7 +15747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -12423,7 +16228,1689 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C40" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C45" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C53" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D57" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D58" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D61" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D62" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D63" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D65" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D66" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D69" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D70" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C72" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D73" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D74" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="58.2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>21</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>22</v>
+      </c>
+      <c r="B77" s="4">
+        <v>100</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>23</v>
+      </c>
+      <c r="B79" s="4">
+        <v>200</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>25</v>
+      </c>
+      <c r="B81" s="4">
+        <v>300</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>26</v>
+      </c>
+      <c r="B83" s="2">
+        <v>400</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="58.2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>27</v>
+      </c>
+      <c r="B85" s="4">
+        <v>500</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>28</v>
+      </c>
+      <c r="B87" s="2">
+        <v>600</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>29</v>
+      </c>
+      <c r="B89" s="2">
+        <v>700</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2">
+        <v>800</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>31</v>
+      </c>
+      <c r="B93" s="2">
+        <v>900</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>32</v>
+      </c>
+      <c r="B95" s="2">
+        <v>901</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>33</v>
+      </c>
+      <c r="B97" s="2">
+        <v>901</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="101.4" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>34</v>
+      </c>
+      <c r="B99" s="2">
+        <v>901</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>35</v>
+      </c>
+      <c r="B101" s="2">
+        <v>901</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>36</v>
+      </c>
+      <c r="B103" s="2">
+        <v>901</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
+        <v>37</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>38</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A109" s="4">
+        <v>39</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A111" s="4">
+        <v>40</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A113" s="4">
+        <v>41</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>42</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="72.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>43</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F28" r:id="rId1"/>
+    <hyperlink ref="F64" r:id="rId2"/>
+    <hyperlink ref="F65" r:id="rId3"/>
+    <hyperlink ref="F72" r:id="rId4"/>
+    <hyperlink ref="F73" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -12531,197 +18018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="49" style="11" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C15" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="C16" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -13255,6 +18552,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="49" style="11" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="C16" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13503,7 +18990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
@@ -15528,7 +21015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L91"/>
   <sheetViews>
@@ -16872,7 +22359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -17128,7 +22615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -17385,7 +22872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -17636,266 +23123,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="84.5546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="80.88671875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>17</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>19</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>21</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>